--- a/Oracle SQL/공연행사_후기_샘플_30개.xlsx
+++ b/Oracle SQL/공연행사_후기_샘플_30개.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Works\Project01\Project01\Oracle SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3E82D2-3ACB-42DD-ADDF-61F3D2EE60A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCE5208-F9EE-4536-9B7B-903B140EB0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -868,12 +868,15 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="1" max="1" width="65.625" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
